--- a/cns/(cns.generator)/D01B QO and Homeline.xlsx
+++ b/cns/(cns.generator)/D01B QO and Homeline.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Help" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Easy Selector Jump Start'!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Easy Selector Jump Start'!$A$1:$H$212</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="298">
   <si>
     <t>Catalog#</t>
   </si>
@@ -562,6 +562,357 @@
   </si>
   <si>
     <t>D01B</t>
+  </si>
+  <si>
+    <t>QO215VHCAFI</t>
+  </si>
+  <si>
+    <t>QO120CAFI</t>
+  </si>
+  <si>
+    <t>QO120VHCAFI</t>
+  </si>
+  <si>
+    <t>QO220CAFI</t>
+  </si>
+  <si>
+    <t>QO220VHCAFI</t>
+  </si>
+  <si>
+    <t>QO115PCAFI</t>
+  </si>
+  <si>
+    <t>QO115VHPCAFI</t>
+  </si>
+  <si>
+    <t>QO120PCAFI</t>
+  </si>
+  <si>
+    <t>QO120VHPCAFI</t>
+  </si>
+  <si>
+    <t>QO-Dual Function Arc Fault Circuit Breakers</t>
+  </si>
+  <si>
+    <t>QO115DF</t>
+  </si>
+  <si>
+    <t>QO115VHDF</t>
+  </si>
+  <si>
+    <t>QO120DF</t>
+  </si>
+  <si>
+    <t>QO120VHDF</t>
+  </si>
+  <si>
+    <t>QO115PDF</t>
+  </si>
+  <si>
+    <t>QO115VHPDF</t>
+  </si>
+  <si>
+    <t>QO120PDF</t>
+  </si>
+  <si>
+    <t>QO120VHPDF</t>
+  </si>
+  <si>
+    <t>QO115GFI</t>
+  </si>
+  <si>
+    <t>QO115VHGFI</t>
+  </si>
+  <si>
+    <t>QO215GFI</t>
+  </si>
+  <si>
+    <t>QO315GFI</t>
+  </si>
+  <si>
+    <t>208Y120Vac</t>
+  </si>
+  <si>
+    <t>QO120GFI</t>
+  </si>
+  <si>
+    <t>QO120VHGFI</t>
+  </si>
+  <si>
+    <t>QO220GFI</t>
+  </si>
+  <si>
+    <t>QO320GFI</t>
+  </si>
+  <si>
+    <t>QO125GFI</t>
+  </si>
+  <si>
+    <t>QO125VHGFI</t>
+  </si>
+  <si>
+    <t>QO225GFI</t>
+  </si>
+  <si>
+    <t>QO130GFI</t>
+  </si>
+  <si>
+    <t>10KA</t>
+  </si>
+  <si>
+    <t>QO130VHGFI</t>
+  </si>
+  <si>
+    <t>QO240GFI</t>
+  </si>
+  <si>
+    <t>QO340GFI</t>
+  </si>
+  <si>
+    <t>QO250GFI</t>
+  </si>
+  <si>
+    <t>QO350GFI</t>
+  </si>
+  <si>
+    <t>QO260GFI</t>
+  </si>
+  <si>
+    <t>QO115EPD</t>
+  </si>
+  <si>
+    <t>QO215EPD</t>
+  </si>
+  <si>
+    <t>QO315EPD</t>
+  </si>
+  <si>
+    <t>QO315EPE</t>
+  </si>
+  <si>
+    <t>EPD</t>
+  </si>
+  <si>
+    <t>EPE</t>
+  </si>
+  <si>
+    <t>Protection Type</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>QO-EPD/EPE Circuit Breakers</t>
+  </si>
+  <si>
+    <t>QO120EPD</t>
+  </si>
+  <si>
+    <t>QO220EPD</t>
+  </si>
+  <si>
+    <t>QO320EPD</t>
+  </si>
+  <si>
+    <t>QO320EPE</t>
+  </si>
+  <si>
+    <t>QO125EPD</t>
+  </si>
+  <si>
+    <t>QO225EPD</t>
+  </si>
+  <si>
+    <t>QO130EPD</t>
+  </si>
+  <si>
+    <t>QO230EPD</t>
+  </si>
+  <si>
+    <t>QO330EPD</t>
+  </si>
+  <si>
+    <t>QO330EPE</t>
+  </si>
+  <si>
+    <t>QO240EPD</t>
+  </si>
+  <si>
+    <t>QO340EPD</t>
+  </si>
+  <si>
+    <t>QO340EPE</t>
+  </si>
+  <si>
+    <t>QO250EPD</t>
+  </si>
+  <si>
+    <t>QO350EPD</t>
+  </si>
+  <si>
+    <t>QO350EPE</t>
+  </si>
+  <si>
+    <t>QO260EPD</t>
+  </si>
+  <si>
+    <t>QO-SWN Circuit Breakers</t>
+  </si>
+  <si>
+    <t>QO210SWN</t>
+  </si>
+  <si>
+    <t>QO310SWN</t>
+  </si>
+  <si>
+    <t>QO215SWN</t>
+  </si>
+  <si>
+    <t>QO315SWN</t>
+  </si>
+  <si>
+    <t>QO220SWN</t>
+  </si>
+  <si>
+    <t>QO320SWN</t>
+  </si>
+  <si>
+    <t>QO225SWN</t>
+  </si>
+  <si>
+    <t>QO325SWN</t>
+  </si>
+  <si>
+    <t>QO230SWN</t>
+  </si>
+  <si>
+    <t>QO330SWN</t>
+  </si>
+  <si>
+    <t>QO240SWN</t>
+  </si>
+  <si>
+    <t>QO340SWN</t>
+  </si>
+  <si>
+    <t>QO250SWN</t>
+  </si>
+  <si>
+    <t>QO350SWN</t>
+  </si>
+  <si>
+    <t>QO-HID Circuit Breakers</t>
+  </si>
+  <si>
+    <t>QO115HD</t>
+  </si>
+  <si>
+    <t>QO-GFI Circuit Breaker</t>
+  </si>
+  <si>
+    <t>QO215HD</t>
+  </si>
+  <si>
+    <t>QO315HID</t>
+  </si>
+  <si>
+    <t>QO220HID</t>
+  </si>
+  <si>
+    <t>QO320HID</t>
+  </si>
+  <si>
+    <t>QO225HID</t>
+  </si>
+  <si>
+    <t>QO125HID</t>
+  </si>
+  <si>
+    <t>QO325HID</t>
+  </si>
+  <si>
+    <t>QO130HID</t>
+  </si>
+  <si>
+    <t>QO230HID</t>
+  </si>
+  <si>
+    <t>QO330HID</t>
+  </si>
+  <si>
+    <t>QO140HID</t>
+  </si>
+  <si>
+    <t>QO240HID</t>
+  </si>
+  <si>
+    <t>QO150HID</t>
+  </si>
+  <si>
+    <t>QO250HID</t>
+  </si>
+  <si>
+    <t>QO-K Circuit Breakers</t>
+  </si>
+  <si>
+    <t>QO110K</t>
+  </si>
+  <si>
+    <t>QO115K</t>
+  </si>
+  <si>
+    <t>QO120K</t>
+  </si>
+  <si>
+    <t>QO125K</t>
+  </si>
+  <si>
+    <t>QO130K</t>
+  </si>
+  <si>
+    <t>QO-HM Circuit Breakers</t>
+  </si>
+  <si>
+    <t>QO115HM</t>
+  </si>
+  <si>
+    <t>QO120HM</t>
+  </si>
+  <si>
+    <t>QO Non-Automatic Miniature Switches</t>
+  </si>
+  <si>
+    <t>QO200</t>
+  </si>
+  <si>
+    <t>QO300</t>
+  </si>
+  <si>
+    <t>QO2000</t>
+  </si>
+  <si>
+    <t>QO3000</t>
+  </si>
+  <si>
+    <t>QO1LO</t>
+  </si>
+  <si>
+    <t>QO1LO;QOHPL;QO1PA</t>
+  </si>
+  <si>
+    <t>QOGFI1PAF</t>
+  </si>
+  <si>
+    <t>HLO1;QO1HPL;QO1PL;QO2PAF</t>
+  </si>
+  <si>
+    <t>;QO1HPL;QO1PL;QO2PAF</t>
+  </si>
+  <si>
+    <t>QOGFI2PAF</t>
+  </si>
+  <si>
+    <t>GFI2PA;QOGFI2PAF</t>
   </si>
 </sst>
 </file>
@@ -704,7 +1055,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -749,6 +1100,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1310,13 +1662,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D119" sqref="D119"/>
+      <selection pane="bottomRight" activeCell="F215" sqref="F215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1329,7 +1681,7 @@
     <col min="6" max="8" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,11 +1706,17 @@
       <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1374,11 +1732,17 @@
       <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1394,11 +1758,17 @@
       <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>35</v>
       </c>
@@ -1414,11 +1784,17 @@
       <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D5" s="8" t="s">
         <v>35</v>
       </c>
@@ -1434,11 +1810,17 @@
       <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
@@ -1454,11 +1836,17 @@
       <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
@@ -1474,11 +1862,17 @@
       <c r="H7" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
@@ -1494,11 +1888,17 @@
       <c r="H8" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
@@ -1514,11 +1914,17 @@
       <c r="H9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
@@ -1534,11 +1940,17 @@
       <c r="H10" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1554,11 +1966,17 @@
       <c r="H11" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>35</v>
       </c>
@@ -1574,11 +1992,17 @@
       <c r="H12" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1594,11 +2018,17 @@
       <c r="H13" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
@@ -1614,11 +2044,17 @@
       <c r="H14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
@@ -1634,11 +2070,17 @@
       <c r="H15" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D16" s="8" t="s">
         <v>35</v>
       </c>
@@ -1654,11 +2096,17 @@
       <c r="H16" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
@@ -1674,11 +2122,17 @@
       <c r="H17" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>35</v>
       </c>
@@ -1694,11 +2148,17 @@
       <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>35</v>
       </c>
@@ -1714,11 +2174,17 @@
       <c r="H19" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D20" s="8" t="s">
         <v>35</v>
       </c>
@@ -1734,11 +2200,17 @@
       <c r="H20" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D21" s="8" t="s">
         <v>35</v>
       </c>
@@ -1754,11 +2226,17 @@
       <c r="H21" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>35</v>
       </c>
@@ -1774,11 +2252,17 @@
       <c r="H22" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D23" s="8" t="s">
         <v>35</v>
       </c>
@@ -1794,11 +2278,17 @@
       <c r="H23" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D24" s="8" t="s">
         <v>35</v>
       </c>
@@ -1814,11 +2304,17 @@
       <c r="H24" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D25" s="8" t="s">
         <v>35</v>
       </c>
@@ -1834,11 +2330,17 @@
       <c r="H25" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
@@ -1854,11 +2356,17 @@
       <c r="H26" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D27" s="8" t="s">
         <v>35</v>
       </c>
@@ -1874,11 +2382,17 @@
       <c r="H27" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1894,11 +2408,17 @@
       <c r="H28" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D29" s="8" t="s">
         <v>35</v>
       </c>
@@ -1914,11 +2434,17 @@
       <c r="H29" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" s="8" t="s">
         <v>35</v>
       </c>
@@ -1934,11 +2460,17 @@
       <c r="H30" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D31" s="8" t="s">
         <v>35</v>
       </c>
@@ -1954,11 +2486,17 @@
       <c r="H31" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D32" s="8" t="s">
         <v>35</v>
       </c>
@@ -1974,11 +2512,17 @@
       <c r="H32" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1994,11 +2538,17 @@
       <c r="H33" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D34" s="8" t="s">
         <v>35</v>
       </c>
@@ -2014,11 +2564,17 @@
       <c r="H34" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D35" s="8" t="s">
         <v>35</v>
       </c>
@@ -2034,11 +2590,17 @@
       <c r="H35" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D36" s="8" t="s">
         <v>35</v>
       </c>
@@ -2054,11 +2616,17 @@
       <c r="H36" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2074,11 +2642,17 @@
       <c r="H37" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D38" s="8" t="s">
         <v>35</v>
       </c>
@@ -2094,11 +2668,17 @@
       <c r="H38" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D39" s="8" t="s">
         <v>35</v>
       </c>
@@ -2114,11 +2694,17 @@
       <c r="H39" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D40" s="8" t="s">
         <v>35</v>
       </c>
@@ -2134,11 +2720,17 @@
       <c r="H40" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D41" s="8" t="s">
         <v>35</v>
       </c>
@@ -2154,11 +2746,17 @@
       <c r="H41" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D42" s="8" t="s">
         <v>35</v>
       </c>
@@ -2174,11 +2772,17 @@
       <c r="H42" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D43" s="8" t="s">
         <v>35</v>
       </c>
@@ -2194,11 +2798,17 @@
       <c r="H43" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D44" s="8" t="s">
         <v>35</v>
       </c>
@@ -2214,11 +2824,17 @@
       <c r="H44" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D45" s="8" t="s">
         <v>35</v>
       </c>
@@ -2234,11 +2850,17 @@
       <c r="H45" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D46" s="8" t="s">
         <v>35</v>
       </c>
@@ -2254,11 +2876,17 @@
       <c r="H46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D47" s="8" t="s">
         <v>35</v>
       </c>
@@ -2274,11 +2902,17 @@
       <c r="H47" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D48" s="8" t="s">
         <v>35</v>
       </c>
@@ -2294,11 +2928,17 @@
       <c r="H48" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D49" s="8" t="s">
         <v>35</v>
       </c>
@@ -2314,11 +2954,17 @@
       <c r="H49" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="B50" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D50" s="8" t="s">
         <v>35</v>
       </c>
@@ -2334,11 +2980,17 @@
       <c r="H50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D51" s="8" t="s">
         <v>35</v>
       </c>
@@ -2354,11 +3006,17 @@
       <c r="H51" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="B52" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D52" s="8" t="s">
         <v>35</v>
       </c>
@@ -2374,11 +3032,17 @@
       <c r="H52" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D53" s="8" t="s">
         <v>35</v>
       </c>
@@ -2394,11 +3058,17 @@
       <c r="H53" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D54" s="8" t="s">
         <v>35</v>
       </c>
@@ -2414,11 +3084,17 @@
       <c r="H54" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D55" s="8" t="s">
         <v>35</v>
       </c>
@@ -2434,11 +3110,17 @@
       <c r="H55" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D56" s="8" t="s">
         <v>35</v>
       </c>
@@ -2454,11 +3136,17 @@
       <c r="H56" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="B57" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D57" s="8" t="s">
         <v>35</v>
       </c>
@@ -2474,11 +3162,17 @@
       <c r="H57" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D58" s="8" t="s">
         <v>35</v>
       </c>
@@ -2494,11 +3188,17 @@
       <c r="H58" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D59" s="8" t="s">
         <v>35</v>
       </c>
@@ -2514,11 +3214,17 @@
       <c r="H59" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D60" s="8" t="s">
         <v>35</v>
       </c>
@@ -2534,11 +3240,17 @@
       <c r="H60" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D61" s="8" t="s">
         <v>35</v>
       </c>
@@ -2554,11 +3266,17 @@
       <c r="H61" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D62" s="8" t="s">
         <v>35</v>
       </c>
@@ -2574,11 +3292,17 @@
       <c r="H62" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D63" s="8" t="s">
         <v>35</v>
       </c>
@@ -2594,11 +3318,17 @@
       <c r="H63" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="B64" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D64" s="8" t="s">
         <v>35</v>
       </c>
@@ -2614,11 +3344,17 @@
       <c r="H64" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D65" s="8" t="s">
         <v>35</v>
       </c>
@@ -2634,11 +3370,17 @@
       <c r="H65" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D66" s="8" t="s">
         <v>35</v>
       </c>
@@ -2654,11 +3396,17 @@
       <c r="H66" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D67" s="8" t="s">
         <v>35</v>
       </c>
@@ -2674,11 +3422,17 @@
       <c r="H67" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D68" s="8" t="s">
         <v>35</v>
       </c>
@@ -2694,11 +3448,17 @@
       <c r="H68" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D69" s="8" t="s">
         <v>35</v>
       </c>
@@ -2714,11 +3474,17 @@
       <c r="H69" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="B70" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D70" s="8" t="s">
         <v>35</v>
       </c>
@@ -2734,11 +3500,17 @@
       <c r="H70" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="B71" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D71" s="8" t="s">
         <v>35</v>
       </c>
@@ -2754,11 +3526,17 @@
       <c r="H71" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="B72" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D72" s="8" t="s">
         <v>35</v>
       </c>
@@ -2774,11 +3552,17 @@
       <c r="H72" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="B73" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D73" s="8" t="s">
         <v>35</v>
       </c>
@@ -2794,11 +3578,17 @@
       <c r="H73" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="B74" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D74" s="8" t="s">
         <v>35</v>
       </c>
@@ -2814,11 +3604,17 @@
       <c r="H74" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D75" s="8" t="s">
         <v>35</v>
       </c>
@@ -2834,11 +3630,17 @@
       <c r="H75" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="B76" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D76" s="8" t="s">
         <v>35</v>
       </c>
@@ -2854,11 +3656,17 @@
       <c r="H76" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="B77" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D77" s="8" t="s">
         <v>35</v>
       </c>
@@ -2874,11 +3682,17 @@
       <c r="H77" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="B78" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D78" s="8" t="s">
         <v>35</v>
       </c>
@@ -2894,11 +3708,17 @@
       <c r="H78" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D79" s="8" t="s">
         <v>35</v>
       </c>
@@ -2914,11 +3734,17 @@
       <c r="H79" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D80" s="8" t="s">
         <v>35</v>
       </c>
@@ -2934,11 +3760,17 @@
       <c r="H80" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="B81" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D81" s="8" t="s">
         <v>35</v>
       </c>
@@ -2954,11 +3786,17 @@
       <c r="H81" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="B82" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D82" s="8" t="s">
         <v>35</v>
       </c>
@@ -2974,11 +3812,17 @@
       <c r="H82" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="B83" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D83" s="8" t="s">
         <v>35</v>
       </c>
@@ -2994,11 +3838,17 @@
       <c r="H83" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="B84" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D84" s="8" t="s">
         <v>35</v>
       </c>
@@ -3014,11 +3864,17 @@
       <c r="H84" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="B85" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D85" s="8" t="s">
         <v>35</v>
       </c>
@@ -3034,12 +3890,17 @@
       <c r="H85" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="16"/>
+      <c r="B86" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="C86" s="16"/>
       <c r="D86" s="8" t="s">
         <v>35</v>
@@ -3056,11 +3917,17 @@
       <c r="H86" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="B87" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D87" s="8" t="s">
         <v>35</v>
       </c>
@@ -3076,11 +3943,17 @@
       <c r="H87" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="B88" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D88" s="8" t="s">
         <v>35</v>
       </c>
@@ -3096,11 +3969,17 @@
       <c r="H88" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="B89" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D89" s="8" t="s">
         <v>35</v>
       </c>
@@ -3116,11 +3995,17 @@
       <c r="H89" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D90" s="8" t="s">
         <v>35</v>
       </c>
@@ -3136,11 +4021,17 @@
       <c r="H90" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="B91" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D91" s="8" t="s">
         <v>35</v>
       </c>
@@ -3156,11 +4047,17 @@
       <c r="H91" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="B92" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D92" s="8" t="s">
         <v>35</v>
       </c>
@@ -3176,11 +4073,17 @@
       <c r="H92" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="B93" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D93" s="8" t="s">
         <v>35</v>
       </c>
@@ -3196,11 +4099,17 @@
       <c r="H93" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="B94" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D94" s="8" t="s">
         <v>35</v>
       </c>
@@ -3216,11 +4125,17 @@
       <c r="H94" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="B95" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D95" s="8" t="s">
         <v>35</v>
       </c>
@@ -3236,11 +4151,17 @@
       <c r="H95" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="B96" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D96" s="8" t="s">
         <v>35</v>
       </c>
@@ -3256,11 +4177,17 @@
       <c r="H96" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="B97" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D97" s="8" t="s">
         <v>35</v>
       </c>
@@ -3276,11 +4203,17 @@
       <c r="H97" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="B98" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D98" s="8" t="s">
         <v>35</v>
       </c>
@@ -3296,11 +4229,17 @@
       <c r="H98" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="B99" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D99" s="8" t="s">
         <v>35</v>
       </c>
@@ -3316,11 +4255,17 @@
       <c r="H99" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="B100" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D100" s="8" t="s">
         <v>35</v>
       </c>
@@ -3336,11 +4281,17 @@
       <c r="H100" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="B101" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D101" s="8" t="s">
         <v>35</v>
       </c>
@@ -3356,11 +4307,17 @@
       <c r="H101" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="B102" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D102" s="8" t="s">
         <v>35</v>
       </c>
@@ -3376,11 +4333,17 @@
       <c r="H102" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="B103" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D103" s="8" t="s">
         <v>35</v>
       </c>
@@ -3396,11 +4359,17 @@
       <c r="H103" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="B104" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D104" s="8" t="s">
         <v>35</v>
       </c>
@@ -3416,11 +4385,17 @@
       <c r="H104" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="B105" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D105" s="8" t="s">
         <v>35</v>
       </c>
@@ -3436,11 +4411,17 @@
       <c r="H105" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="B106" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D106" s="8" t="s">
         <v>35</v>
       </c>
@@ -3456,11 +4437,17 @@
       <c r="H106" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="B107" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D107" s="8" t="s">
         <v>35</v>
       </c>
@@ -3476,11 +4463,17 @@
       <c r="H107" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="B108" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D108" s="8" t="s">
         <v>35</v>
       </c>
@@ -3496,11 +4489,17 @@
       <c r="H108" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="B109" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D109" s="8" t="s">
         <v>35</v>
       </c>
@@ -3516,11 +4515,17 @@
       <c r="H109" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="B110" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D110" s="8" t="s">
         <v>35</v>
       </c>
@@ -3536,11 +4541,17 @@
       <c r="H110" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="B111" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D111" s="8" t="s">
         <v>35</v>
       </c>
@@ -3556,11 +4567,17 @@
       <c r="H111" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="B112" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D112" s="8" t="s">
         <v>35</v>
       </c>
@@ -3576,11 +4593,17 @@
       <c r="H112" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="B113" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D113" s="8" t="s">
         <v>35</v>
       </c>
@@ -3596,11 +4619,17 @@
       <c r="H113" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="B114" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D114" s="8" t="s">
         <v>175</v>
       </c>
@@ -3616,11 +4645,17 @@
       <c r="H114" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="B115" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D115" s="8" t="s">
         <v>175</v>
       </c>
@@ -3636,11 +4671,17 @@
       <c r="H115" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="B116" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="D116" s="8" t="s">
         <v>175</v>
       </c>
@@ -3656,337 +4697,2358 @@
       <c r="H116" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="D117" s="8"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="D118" s="8"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="D119" s="8"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="D120" s="8"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="D121" s="8"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="D122" s="8"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="D123" s="8"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="D124" s="8"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="D125" s="8"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="D126" s="8"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="D127" s="8"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="D128" s="8"/>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" s="8"/>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130" s="8"/>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131" s="8"/>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132" s="8"/>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" s="8"/>
-    </row>
-    <row r="134" spans="4:4">
-      <c r="D134" s="8"/>
-    </row>
-    <row r="135" spans="4:4">
-      <c r="D135" s="8"/>
-    </row>
-    <row r="136" spans="4:4">
-      <c r="D136" s="8"/>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" s="8"/>
-    </row>
-    <row r="138" spans="4:4">
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" s="8"/>
-    </row>
-    <row r="140" spans="4:4">
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="4:4">
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="4:4">
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="4:4">
-      <c r="D144" s="8"/>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="4:4">
-      <c r="D146" s="17"/>
-    </row>
-    <row r="147" spans="4:4">
-      <c r="D147" s="17"/>
-    </row>
-    <row r="148" spans="4:4">
-      <c r="D148" s="17"/>
-    </row>
-    <row r="149" spans="4:4">
-      <c r="D149" s="17"/>
-    </row>
-    <row r="150" spans="4:4">
-      <c r="D150" s="17"/>
-    </row>
-    <row r="151" spans="4:4">
-      <c r="D151" s="17"/>
-    </row>
-    <row r="152" spans="4:4">
-      <c r="D152" s="17"/>
-    </row>
-    <row r="153" spans="4:4">
-      <c r="D153" s="17"/>
-    </row>
-    <row r="154" spans="4:4">
-      <c r="D154" s="17"/>
-    </row>
-    <row r="155" spans="4:4">
-      <c r="D155" s="17"/>
-    </row>
-    <row r="156" spans="4:4">
-      <c r="D156" s="17"/>
-    </row>
-    <row r="157" spans="4:4">
-      <c r="D157" s="17"/>
-    </row>
-    <row r="158" spans="4:4">
-      <c r="D158" s="17"/>
-    </row>
-    <row r="159" spans="4:4">
-      <c r="D159" s="17"/>
-    </row>
-    <row r="160" spans="4:4">
-      <c r="D160" s="17"/>
-    </row>
-    <row r="161" spans="4:8">
-      <c r="D161" s="17"/>
-    </row>
-    <row r="162" spans="4:8">
-      <c r="D162" s="17"/>
-    </row>
-    <row r="163" spans="4:8">
-      <c r="D163" s="17"/>
-    </row>
-    <row r="164" spans="4:8">
-      <c r="D164" s="17"/>
-    </row>
-    <row r="165" spans="4:8">
-      <c r="D165" s="17"/>
-    </row>
-    <row r="166" spans="4:8">
-      <c r="D166" s="17"/>
-    </row>
-    <row r="167" spans="4:8">
-      <c r="D167" s="17"/>
-    </row>
-    <row r="168" spans="4:8">
-      <c r="D168" s="17"/>
-    </row>
-    <row r="169" spans="4:8">
-      <c r="D169" s="17"/>
-    </row>
-    <row r="170" spans="4:8">
-      <c r="D170" s="17"/>
-    </row>
-    <row r="171" spans="4:8">
-      <c r="D171" s="17"/>
-    </row>
-    <row r="172" spans="4:8">
-      <c r="D172" s="17"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
-    </row>
-    <row r="173" spans="4:8">
-      <c r="D173" s="17"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
-    </row>
-    <row r="174" spans="4:8">
-      <c r="D174" s="17"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-    </row>
-    <row r="175" spans="4:8">
-      <c r="D175" s="17"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
-    </row>
-    <row r="176" spans="4:8">
-      <c r="D176" s="17"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-    </row>
-    <row r="177" spans="4:8">
-      <c r="D177" s="17"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-    </row>
-    <row r="178" spans="4:8">
-      <c r="D178" s="17"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-    </row>
-    <row r="179" spans="4:8">
-      <c r="D179" s="17"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
-    </row>
-    <row r="180" spans="4:8">
-      <c r="D180" s="17"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
-    </row>
-    <row r="181" spans="4:8">
-      <c r="D181" s="17"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
-    </row>
-    <row r="182" spans="4:8">
-      <c r="D182" s="17"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
-    </row>
-    <row r="183" spans="4:8">
-      <c r="D183" s="17"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
-    </row>
-    <row r="184" spans="4:8">
-      <c r="D184" s="17"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
-    </row>
-    <row r="185" spans="4:8">
-      <c r="D185" s="17"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
-    </row>
-    <row r="186" spans="4:8">
-      <c r="D186" s="17"/>
-    </row>
-    <row r="187" spans="4:8">
-      <c r="D187" s="17"/>
-    </row>
-    <row r="188" spans="4:8">
-      <c r="D188" s="17"/>
-    </row>
-    <row r="189" spans="4:8">
-      <c r="D189" s="17"/>
-    </row>
-    <row r="190" spans="4:8">
-      <c r="D190" s="17"/>
-    </row>
-    <row r="191" spans="4:8">
-      <c r="D191" s="17"/>
-    </row>
-    <row r="192" spans="4:8">
-      <c r="D192" s="17"/>
-    </row>
-    <row r="193" spans="4:4">
-      <c r="D193" s="17"/>
-    </row>
-    <row r="194" spans="4:4">
-      <c r="D194" s="17"/>
-    </row>
-    <row r="195" spans="4:4">
-      <c r="D195" s="17"/>
-    </row>
-    <row r="196" spans="4:4">
-      <c r="D196" s="17"/>
-    </row>
-    <row r="197" spans="4:4">
-      <c r="D197" s="17"/>
-    </row>
-    <row r="198" spans="4:4">
-      <c r="D198" s="17"/>
-    </row>
-    <row r="199" spans="4:4">
-      <c r="D199" s="17"/>
-    </row>
-    <row r="200" spans="4:4">
-      <c r="D200" s="17"/>
-    </row>
-    <row r="201" spans="4:4">
-      <c r="D201" s="17"/>
-    </row>
-    <row r="202" spans="4:4">
-      <c r="D202" s="17"/>
-    </row>
-    <row r="203" spans="4:4">
-      <c r="D203" s="17"/>
-    </row>
-    <row r="204" spans="4:4">
-      <c r="D204" s="17"/>
-    </row>
-    <row r="205" spans="4:4">
-      <c r="D205" s="17"/>
-    </row>
-    <row r="206" spans="4:4">
-      <c r="D206" s="17"/>
-    </row>
-    <row r="207" spans="4:4">
-      <c r="D207" s="17"/>
-    </row>
-    <row r="208" spans="4:4">
-      <c r="D208" s="17"/>
-    </row>
-    <row r="209" spans="4:4">
-      <c r="D209" s="17"/>
-    </row>
-    <row r="210" spans="4:4">
-      <c r="D210" s="17"/>
-    </row>
-    <row r="211" spans="4:4">
-      <c r="D211" s="17"/>
-    </row>
-    <row r="212" spans="4:4">
-      <c r="D212" s="17"/>
-    </row>
-    <row r="213" spans="4:4">
+      <c r="I116" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I118" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I122" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I124" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I127" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I128" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I129" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I130" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I132" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I133" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I134" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I136" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I138" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I140" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I141" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I142" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I146" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I147" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I148" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I149" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I152" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I153" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I154" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I156" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I157" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I158" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I159" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I160" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I161" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I162" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I163" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I164" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I165" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I166" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I168" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I169" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I170" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I171" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H172" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I172" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H173" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I173" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H174" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I174" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H175" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I175" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H176" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H177" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I177" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H178" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I178" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H179" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I179" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H180" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I180" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H181" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I181" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H182" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I182" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H183" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I183" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H184" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I184" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H185" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I185" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H186" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I186" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I187" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I188" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I189" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I190" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I191" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I192" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I193" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I194" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I195" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I196" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I197" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I198" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I199" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I200" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I201" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I202" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I203" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I204" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I205" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I206" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D207" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I207" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D208" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I208" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I209" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I210" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I211" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I212" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="D213" s="17"/>
     </row>
-    <row r="214" spans="4:4">
+    <row r="214" spans="1:9">
       <c r="D214" s="17"/>
     </row>
-    <row r="215" spans="4:4">
+    <row r="215" spans="1:9">
       <c r="D215" s="17"/>
     </row>
-    <row r="216" spans="4:4">
+    <row r="216" spans="1:9">
       <c r="D216" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H3"/>
+  <autoFilter ref="A1:H212"/>
   <sortState ref="A2:H3">
     <sortCondition ref="D2:D91"/>
     <sortCondition ref="F2:F91"/>
@@ -4001,7 +7063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C14"/>
     </sheetView>
   </sheetViews>

--- a/cns/(cns.generator)/D01B QO and Homeline.xlsx
+++ b/cns/(cns.generator)/D01B QO and Homeline.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Help" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Easy Selector Jump Start'!$A$1:$H$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Easy Selector Jump Start'!$A$1:$H$279</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="400">
   <si>
     <t>Catalog#</t>
   </si>
@@ -913,6 +913,312 @@
   </si>
   <si>
     <t>GFI2PA;QOGFI2PAF</t>
+  </si>
+  <si>
+    <t>HOM Circuit Breakers</t>
+  </si>
+  <si>
+    <t>HOM115</t>
+  </si>
+  <si>
+    <t>HOM215</t>
+  </si>
+  <si>
+    <t>HOM120</t>
+  </si>
+  <si>
+    <t>HOM220</t>
+  </si>
+  <si>
+    <t>HOM125</t>
+  </si>
+  <si>
+    <t>HOM225</t>
+  </si>
+  <si>
+    <t>HOM130</t>
+  </si>
+  <si>
+    <t>HOM230</t>
+  </si>
+  <si>
+    <t>HOM235</t>
+  </si>
+  <si>
+    <t>HOM140</t>
+  </si>
+  <si>
+    <t>HOM240</t>
+  </si>
+  <si>
+    <t>HOM245</t>
+  </si>
+  <si>
+    <t>HOM150</t>
+  </si>
+  <si>
+    <t>HOM250</t>
+  </si>
+  <si>
+    <t>HOM260</t>
+  </si>
+  <si>
+    <t>HOM270</t>
+  </si>
+  <si>
+    <t>HOM280</t>
+  </si>
+  <si>
+    <t>HOM290</t>
+  </si>
+  <si>
+    <t>HOM2100</t>
+  </si>
+  <si>
+    <t>HOM2110</t>
+  </si>
+  <si>
+    <t>HOM2125</t>
+  </si>
+  <si>
+    <t>HOM2150BB</t>
+  </si>
+  <si>
+    <t>HOM2175BB</t>
+  </si>
+  <si>
+    <t>HOM2200BB</t>
+  </si>
+  <si>
+    <t>HOM-HM Circuit Breakers</t>
+  </si>
+  <si>
+    <t>HOM115HM</t>
+  </si>
+  <si>
+    <t>HOM120HM</t>
+  </si>
+  <si>
+    <t>HOM-CAFI Circuit Breakers</t>
+  </si>
+  <si>
+    <t>HOM115CAFI</t>
+  </si>
+  <si>
+    <t>HOM120CAFI</t>
+  </si>
+  <si>
+    <t>HOM115PCAFI</t>
+  </si>
+  <si>
+    <t>HOM120PCAFI</t>
+  </si>
+  <si>
+    <t>HOM215CAFI</t>
+  </si>
+  <si>
+    <t>HOM220CAFI</t>
+  </si>
+  <si>
+    <t>Pigtail Neutral</t>
+  </si>
+  <si>
+    <t>Plug-On Neutral</t>
+  </si>
+  <si>
+    <t>Neutral Type</t>
+  </si>
+  <si>
+    <t>HOM115DF</t>
+  </si>
+  <si>
+    <t>HOM120DF</t>
+  </si>
+  <si>
+    <t>HOM115PDF</t>
+  </si>
+  <si>
+    <t>HOM120PDF</t>
+  </si>
+  <si>
+    <t>HOM-DF Circuit Breakers</t>
+  </si>
+  <si>
+    <t>HOM115GFI</t>
+  </si>
+  <si>
+    <t>HOM215GFI</t>
+  </si>
+  <si>
+    <t>HOM120GFI</t>
+  </si>
+  <si>
+    <t>HOM220GFI</t>
+  </si>
+  <si>
+    <t>HOM230GFI</t>
+  </si>
+  <si>
+    <t>HOM240GFI</t>
+  </si>
+  <si>
+    <t>HOM250GFI</t>
+  </si>
+  <si>
+    <t>HOM-GFI Circuit Breakers</t>
+  </si>
+  <si>
+    <t>HOM-EPD Circuit Breakers</t>
+  </si>
+  <si>
+    <t>HOM115EPD</t>
+  </si>
+  <si>
+    <t>HOM120EPD</t>
+  </si>
+  <si>
+    <t>HOM215EPD</t>
+  </si>
+  <si>
+    <t>HOM220EPD</t>
+  </si>
+  <si>
+    <t>HOM225EPD</t>
+  </si>
+  <si>
+    <t>HOM230EPD</t>
+  </si>
+  <si>
+    <t>HOM240EPD</t>
+  </si>
+  <si>
+    <t>HOM250EPD</t>
+  </si>
+  <si>
+    <t>HOMT Tandem Circuit Breakers</t>
+  </si>
+  <si>
+    <t>HOMT1515</t>
+  </si>
+  <si>
+    <t>HOMT1520</t>
+  </si>
+  <si>
+    <t>HOMT2020</t>
+  </si>
+  <si>
+    <t>HOMT3015</t>
+  </si>
+  <si>
+    <t>HOMT3020</t>
+  </si>
+  <si>
+    <t>15A/15A</t>
+  </si>
+  <si>
+    <t>15A/20A</t>
+  </si>
+  <si>
+    <t>20A/20A</t>
+  </si>
+  <si>
+    <t>30A/15A</t>
+  </si>
+  <si>
+    <t>30A/20A</t>
+  </si>
+  <si>
+    <t>HOMT Quad Tandem Circuit Breakers</t>
+  </si>
+  <si>
+    <t>HOMT1515215</t>
+  </si>
+  <si>
+    <t>HOMT1515220</t>
+  </si>
+  <si>
+    <t>HOMT1515225</t>
+  </si>
+  <si>
+    <t>HOMT1515230</t>
+  </si>
+  <si>
+    <t>HOMT1515240</t>
+  </si>
+  <si>
+    <t>HOMT1515250</t>
+  </si>
+  <si>
+    <t>HOMT2020220</t>
+  </si>
+  <si>
+    <t>HOMT2020225</t>
+  </si>
+  <si>
+    <t>HOMT2020230</t>
+  </si>
+  <si>
+    <t>HOMT2020240</t>
+  </si>
+  <si>
+    <t>HOMT2020250</t>
+  </si>
+  <si>
+    <t>(2) 15A/15A</t>
+  </si>
+  <si>
+    <t>(2) 15A/20A</t>
+  </si>
+  <si>
+    <t>(2) 15A/25A</t>
+  </si>
+  <si>
+    <t>(2) 15A/30A</t>
+  </si>
+  <si>
+    <t>(2) 15A/40A</t>
+  </si>
+  <si>
+    <t>(2) 15A/50A</t>
+  </si>
+  <si>
+    <t>(2) 20A/20A</t>
+  </si>
+  <si>
+    <t>(2) 20A/25A</t>
+  </si>
+  <si>
+    <t>(2) 20A/30A</t>
+  </si>
+  <si>
+    <t>(2) 20A/40A</t>
+  </si>
+  <si>
+    <t>(2) 20A/50A</t>
+  </si>
+  <si>
+    <t>HOMTHT</t>
+  </si>
+  <si>
+    <t>HOM1HT;QO1LO;HOM1PA</t>
+  </si>
+  <si>
+    <t>HOM1HT;HOM2HBD;HOM2PALA</t>
+  </si>
+  <si>
+    <t>HOM1HT;HOM2HBD;HOM2PAHA</t>
+  </si>
+  <si>
+    <t>HOM1HT;HOM2HBD;HOM2PAVHA</t>
+  </si>
+  <si>
+    <t>HOMELEC1PA</t>
+  </si>
+  <si>
+    <t>HOMELEC2PALA</t>
+  </si>
+  <si>
+    <t>HOMQPA</t>
   </si>
 </sst>
 </file>
@@ -1662,13 +1968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F215" sqref="F215"/>
+      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1681,7 +1987,7 @@
     <col min="6" max="8" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,8 +2015,11 @@
       <c r="I1" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1735,8 +2044,11 @@
       <c r="I2" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1761,8 +2073,11 @@
       <c r="I3" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -1787,8 +2102,11 @@
       <c r="I4" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1813,8 +2131,11 @@
       <c r="I5" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1839,8 +2160,11 @@
       <c r="I6" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1865,8 +2189,11 @@
       <c r="I7" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1891,8 +2218,11 @@
       <c r="I8" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -1917,8 +2247,11 @@
       <c r="I9" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1943,8 +2276,11 @@
       <c r="I10" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -1969,8 +2305,11 @@
       <c r="I11" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -1995,8 +2334,11 @@
       <c r="I12" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -2021,8 +2363,11 @@
       <c r="I13" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -2047,8 +2392,11 @@
       <c r="I14" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -2073,8 +2421,11 @@
       <c r="I15" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -2099,8 +2450,11 @@
       <c r="I16" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -2125,8 +2479,11 @@
       <c r="I17" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -2151,8 +2508,11 @@
       <c r="I18" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -2177,8 +2537,11 @@
       <c r="I19" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -2203,8 +2566,11 @@
       <c r="I20" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2229,8 +2595,11 @@
       <c r="I21" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
@@ -2255,8 +2624,11 @@
       <c r="I22" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
@@ -2281,8 +2653,11 @@
       <c r="I23" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2307,8 +2682,11 @@
       <c r="I24" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -2333,8 +2711,11 @@
       <c r="I25" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
@@ -2359,8 +2740,11 @@
       <c r="I26" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -2385,8 +2769,11 @@
       <c r="I27" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
@@ -2411,8 +2798,11 @@
       <c r="I28" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
@@ -2437,8 +2827,11 @@
       <c r="I29" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
@@ -2463,8 +2856,11 @@
       <c r="I30" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -2489,8 +2885,11 @@
       <c r="I31" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -2515,8 +2914,11 @@
       <c r="I32" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2541,8 +2943,11 @@
       <c r="I33" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>83</v>
       </c>
@@ -2567,8 +2972,11 @@
       <c r="I34" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -2593,8 +3001,11 @@
       <c r="I35" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -2619,8 +3030,11 @@
       <c r="I36" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2645,8 +3059,11 @@
       <c r="I37" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>87</v>
       </c>
@@ -2671,8 +3088,11 @@
       <c r="I38" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>88</v>
       </c>
@@ -2697,8 +3117,11 @@
       <c r="I39" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>89</v>
       </c>
@@ -2723,8 +3146,11 @@
       <c r="I40" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
@@ -2749,8 +3175,11 @@
       <c r="I41" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>91</v>
       </c>
@@ -2775,8 +3204,11 @@
       <c r="I42" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
@@ -2801,8 +3233,11 @@
       <c r="I43" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>94</v>
       </c>
@@ -2827,8 +3262,11 @@
       <c r="I44" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>95</v>
       </c>
@@ -2853,8 +3291,11 @@
       <c r="I45" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
@@ -2879,8 +3320,11 @@
       <c r="I46" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>98</v>
       </c>
@@ -2905,8 +3349,11 @@
       <c r="I47" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>99</v>
       </c>
@@ -2931,8 +3378,11 @@
       <c r="I48" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
         <v>100</v>
       </c>
@@ -2957,8 +3407,11 @@
       <c r="I49" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -2983,8 +3436,11 @@
       <c r="I50" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
@@ -3009,8 +3465,11 @@
       <c r="I51" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -3035,8 +3494,11 @@
       <c r="I52" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -3061,8 +3523,11 @@
       <c r="I53" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -3087,8 +3552,11 @@
       <c r="I54" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -3113,8 +3581,11 @@
       <c r="I55" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -3139,8 +3610,11 @@
       <c r="I56" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
         <v>115</v>
       </c>
@@ -3165,8 +3639,11 @@
       <c r="I57" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
         <v>117</v>
       </c>
@@ -3191,8 +3668,11 @@
       <c r="I58" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -3217,8 +3697,11 @@
       <c r="I59" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
         <v>119</v>
       </c>
@@ -3243,8 +3726,11 @@
       <c r="I60" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -3269,8 +3755,11 @@
       <c r="I61" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
         <v>121</v>
       </c>
@@ -3295,8 +3784,11 @@
       <c r="I62" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -3321,8 +3813,11 @@
       <c r="I63" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
         <v>123</v>
       </c>
@@ -3347,8 +3842,11 @@
       <c r="I64" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -3373,8 +3871,11 @@
       <c r="I65" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
@@ -3399,8 +3900,11 @@
       <c r="I66" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
@@ -3425,8 +3929,11 @@
       <c r="I67" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
         <v>127</v>
       </c>
@@ -3451,8 +3958,11 @@
       <c r="I68" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
         <v>128</v>
       </c>
@@ -3477,8 +3987,11 @@
       <c r="I69" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
         <v>129</v>
       </c>
@@ -3503,8 +4016,11 @@
       <c r="I70" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
         <v>130</v>
       </c>
@@ -3529,8 +4045,11 @@
       <c r="I71" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
         <v>131</v>
       </c>
@@ -3555,8 +4074,11 @@
       <c r="I72" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -3581,8 +4103,11 @@
       <c r="I73" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
         <v>133</v>
       </c>
@@ -3607,8 +4132,11 @@
       <c r="I74" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
         <v>134</v>
       </c>
@@ -3633,8 +4161,11 @@
       <c r="I75" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
         <v>135</v>
       </c>
@@ -3659,8 +4190,11 @@
       <c r="I76" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
         <v>136</v>
       </c>
@@ -3685,8 +4219,11 @@
       <c r="I77" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
         <v>137</v>
       </c>
@@ -3711,8 +4248,11 @@
       <c r="I78" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
         <v>138</v>
       </c>
@@ -3737,8 +4277,11 @@
       <c r="I79" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
@@ -3763,8 +4306,11 @@
       <c r="I80" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
         <v>140</v>
       </c>
@@ -3789,8 +4335,11 @@
       <c r="I81" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
         <v>141</v>
       </c>
@@ -3815,8 +4364,11 @@
       <c r="I82" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
         <v>142</v>
       </c>
@@ -3841,8 +4393,11 @@
       <c r="I83" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
         <v>143</v>
       </c>
@@ -3867,8 +4422,11 @@
       <c r="I84" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
         <v>144</v>
       </c>
@@ -3893,8 +4451,11 @@
       <c r="I85" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="19" t="s">
         <v>145</v>
       </c>
@@ -3920,8 +4481,11 @@
       <c r="I86" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
         <v>146</v>
       </c>
@@ -3946,8 +4510,11 @@
       <c r="I87" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
         <v>147</v>
       </c>
@@ -3972,8 +4539,11 @@
       <c r="I88" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
         <v>148</v>
       </c>
@@ -3998,8 +4568,11 @@
       <c r="I89" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
         <v>149</v>
       </c>
@@ -4024,8 +4597,11 @@
       <c r="I90" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
         <v>150</v>
       </c>
@@ -4050,8 +4626,11 @@
       <c r="I91" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
         <v>151</v>
       </c>
@@ -4076,8 +4655,11 @@
       <c r="I92" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
         <v>152</v>
       </c>
@@ -4102,8 +4684,11 @@
       <c r="I93" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
         <v>153</v>
       </c>
@@ -4128,8 +4713,11 @@
       <c r="I94" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
         <v>154</v>
       </c>
@@ -4154,8 +4742,11 @@
       <c r="I95" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
         <v>155</v>
       </c>
@@ -4180,8 +4771,11 @@
       <c r="I96" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
         <v>156</v>
       </c>
@@ -4206,8 +4800,11 @@
       <c r="I97" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
         <v>157</v>
       </c>
@@ -4232,8 +4829,11 @@
       <c r="I98" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
         <v>158</v>
       </c>
@@ -4258,8 +4858,11 @@
       <c r="I99" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
         <v>159</v>
       </c>
@@ -4284,8 +4887,11 @@
       <c r="I100" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
         <v>160</v>
       </c>
@@ -4310,8 +4916,11 @@
       <c r="I101" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
         <v>162</v>
       </c>
@@ -4336,8 +4945,11 @@
       <c r="I102" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
         <v>166</v>
       </c>
@@ -4362,8 +4974,11 @@
       <c r="I103" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
         <v>170</v>
       </c>
@@ -4388,8 +5003,11 @@
       <c r="I104" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
         <v>163</v>
       </c>
@@ -4414,8 +5032,11 @@
       <c r="I105" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
         <v>167</v>
       </c>
@@ -4440,8 +5061,11 @@
       <c r="I106" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
         <v>171</v>
       </c>
@@ -4466,8 +5090,11 @@
       <c r="I107" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
         <v>164</v>
       </c>
@@ -4492,8 +5119,11 @@
       <c r="I108" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
         <v>168</v>
       </c>
@@ -4518,8 +5148,11 @@
       <c r="I109" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
         <v>172</v>
       </c>
@@ -4544,8 +5177,11 @@
       <c r="I110" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
         <v>165</v>
       </c>
@@ -4570,8 +5206,11 @@
       <c r="I111" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
         <v>169</v>
       </c>
@@ -4596,8 +5235,11 @@
       <c r="I112" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
         <v>173</v>
       </c>
@@ -4622,8 +5264,11 @@
       <c r="I113" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
         <v>176</v>
       </c>
@@ -4648,8 +5293,11 @@
       <c r="I114" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
         <v>177</v>
       </c>
@@ -4674,8 +5322,11 @@
       <c r="I115" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
         <v>179</v>
       </c>
@@ -4700,8 +5351,11 @@
       <c r="I116" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
         <v>181</v>
       </c>
@@ -4726,8 +5380,11 @@
       <c r="I117" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
         <v>182</v>
       </c>
@@ -4752,8 +5409,11 @@
       <c r="I118" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
         <v>183</v>
       </c>
@@ -4778,8 +5438,11 @@
       <c r="I119" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
         <v>184</v>
       </c>
@@ -4804,8 +5467,11 @@
       <c r="I120" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
         <v>185</v>
       </c>
@@ -4830,8 +5496,11 @@
       <c r="I121" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
         <v>186</v>
       </c>
@@ -4856,8 +5525,11 @@
       <c r="I122" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
         <v>187</v>
       </c>
@@ -4882,8 +5554,11 @@
       <c r="I123" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
         <v>188</v>
       </c>
@@ -4908,8 +5583,11 @@
       <c r="I124" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
         <v>189</v>
       </c>
@@ -4934,8 +5612,11 @@
       <c r="I125" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
         <v>191</v>
       </c>
@@ -4960,8 +5641,11 @@
       <c r="I126" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
         <v>192</v>
       </c>
@@ -4986,8 +5670,11 @@
       <c r="I127" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
         <v>193</v>
       </c>
@@ -5012,8 +5699,11 @@
       <c r="I128" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
         <v>194</v>
       </c>
@@ -5038,8 +5728,11 @@
       <c r="I129" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
         <v>195</v>
       </c>
@@ -5064,8 +5757,11 @@
       <c r="I130" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
         <v>196</v>
       </c>
@@ -5090,8 +5786,11 @@
       <c r="I131" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
         <v>197</v>
       </c>
@@ -5116,8 +5815,11 @@
       <c r="I132" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
         <v>198</v>
       </c>
@@ -5142,8 +5844,11 @@
       <c r="I133" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
         <v>199</v>
       </c>
@@ -5168,8 +5873,11 @@
       <c r="I134" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
         <v>200</v>
       </c>
@@ -5194,8 +5902,11 @@
       <c r="I135" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
         <v>201</v>
       </c>
@@ -5220,8 +5931,11 @@
       <c r="I136" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
         <v>202</v>
       </c>
@@ -5243,8 +5957,11 @@
       <c r="I137" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
         <v>204</v>
       </c>
@@ -5269,8 +5986,11 @@
       <c r="I138" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
         <v>205</v>
       </c>
@@ -5295,8 +6015,11 @@
       <c r="I139" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
         <v>206</v>
       </c>
@@ -5321,8 +6044,11 @@
       <c r="I140" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
         <v>207</v>
       </c>
@@ -5344,8 +6070,11 @@
       <c r="I141" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
         <v>208</v>
       </c>
@@ -5370,8 +6099,11 @@
       <c r="I142" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
         <v>209</v>
       </c>
@@ -5396,8 +6128,11 @@
       <c r="I143" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
         <v>210</v>
       </c>
@@ -5422,8 +6157,11 @@
       <c r="I144" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
         <v>211</v>
       </c>
@@ -5448,8 +6186,11 @@
       <c r="I145" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
         <v>213</v>
       </c>
@@ -5474,8 +6215,11 @@
       <c r="I146" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
         <v>214</v>
       </c>
@@ -5500,8 +6244,11 @@
       <c r="I147" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
         <v>215</v>
       </c>
@@ -5523,8 +6270,11 @@
       <c r="I148" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
         <v>216</v>
       </c>
@@ -5549,8 +6299,11 @@
       <c r="I149" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
         <v>217</v>
       </c>
@@ -5572,8 +6325,11 @@
       <c r="I150" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
         <v>218</v>
       </c>
@@ -5598,8 +6354,11 @@
       <c r="I151" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
         <v>219</v>
       </c>
@@ -5624,8 +6383,11 @@
       <c r="I152" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
         <v>220</v>
       </c>
@@ -5650,8 +6412,11 @@
       <c r="I153" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
         <v>221</v>
       </c>
@@ -5673,8 +6438,11 @@
       <c r="I154" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
         <v>222</v>
       </c>
@@ -5696,8 +6464,11 @@
       <c r="I155" s="20" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
         <v>228</v>
       </c>
@@ -5722,8 +6493,11 @@
       <c r="I156" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
         <v>229</v>
       </c>
@@ -5748,8 +6522,11 @@
       <c r="I157" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
         <v>230</v>
       </c>
@@ -5771,8 +6548,11 @@
       <c r="I158" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="2" t="s">
         <v>231</v>
       </c>
@@ -5794,8 +6574,11 @@
       <c r="I159" s="20" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="2" t="s">
         <v>232</v>
       </c>
@@ -5820,8 +6603,11 @@
       <c r="I160" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="2" t="s">
         <v>233</v>
       </c>
@@ -5846,8 +6632,11 @@
       <c r="I161" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="2" t="s">
         <v>234</v>
       </c>
@@ -5872,8 +6661,11 @@
       <c r="I162" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="2" t="s">
         <v>235</v>
       </c>
@@ -5898,8 +6690,11 @@
       <c r="I163" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="2" t="s">
         <v>236</v>
       </c>
@@ -5921,8 +6716,11 @@
       <c r="I164" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="2" t="s">
         <v>237</v>
       </c>
@@ -5944,8 +6742,11 @@
       <c r="I165" s="20" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="2" t="s">
         <v>238</v>
       </c>
@@ -5970,8 +6771,11 @@
       <c r="I166" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="2" t="s">
         <v>239</v>
       </c>
@@ -5993,8 +6797,11 @@
       <c r="I167" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="2" t="s">
         <v>240</v>
       </c>
@@ -6016,8 +6823,11 @@
       <c r="I168" s="20" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="2" t="s">
         <v>241</v>
       </c>
@@ -6042,8 +6852,11 @@
       <c r="I169" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="2" t="s">
         <v>242</v>
       </c>
@@ -6065,8 +6878,11 @@
       <c r="I170" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="2" t="s">
         <v>243</v>
       </c>
@@ -6088,8 +6904,11 @@
       <c r="I171" s="20" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="2" t="s">
         <v>244</v>
       </c>
@@ -6114,8 +6933,11 @@
       <c r="I172" s="20" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="2" t="s">
         <v>246</v>
       </c>
@@ -6137,8 +6959,11 @@
       <c r="I173" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="2" t="s">
         <v>247</v>
       </c>
@@ -6160,8 +6985,11 @@
       <c r="I174" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="2" t="s">
         <v>248</v>
       </c>
@@ -6183,8 +7011,11 @@
       <c r="I175" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="2" t="s">
         <v>249</v>
       </c>
@@ -6206,8 +7037,11 @@
       <c r="I176" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="2" t="s">
         <v>250</v>
       </c>
@@ -6229,8 +7063,11 @@
       <c r="I177" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
         <v>251</v>
       </c>
@@ -6252,8 +7089,11 @@
       <c r="I178" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
         <v>252</v>
       </c>
@@ -6275,8 +7115,11 @@
       <c r="I179" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
         <v>253</v>
       </c>
@@ -6298,8 +7141,11 @@
       <c r="I180" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
         <v>254</v>
       </c>
@@ -6321,8 +7167,11 @@
       <c r="I181" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="2" t="s">
         <v>255</v>
       </c>
@@ -6344,8 +7193,11 @@
       <c r="I182" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="2" t="s">
         <v>256</v>
       </c>
@@ -6367,8 +7219,11 @@
       <c r="I183" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="2" t="s">
         <v>257</v>
       </c>
@@ -6390,8 +7245,11 @@
       <c r="I184" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
         <v>258</v>
       </c>
@@ -6413,8 +7271,11 @@
       <c r="I185" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
         <v>259</v>
       </c>
@@ -6436,8 +7297,11 @@
       <c r="I186" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="2" t="s">
         <v>261</v>
       </c>
@@ -6459,8 +7323,11 @@
       <c r="I187" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="2" t="s">
         <v>263</v>
       </c>
@@ -6482,8 +7349,11 @@
       <c r="I188" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="2" t="s">
         <v>264</v>
       </c>
@@ -6505,8 +7375,11 @@
       <c r="I189" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="2" t="s">
         <v>265</v>
       </c>
@@ -6528,8 +7401,11 @@
       <c r="I190" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="2" t="s">
         <v>266</v>
       </c>
@@ -6551,8 +7427,11 @@
       <c r="I191" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="2" t="s">
         <v>268</v>
       </c>
@@ -6574,8 +7453,11 @@
       <c r="I192" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="2" t="s">
         <v>267</v>
       </c>
@@ -6597,8 +7479,11 @@
       <c r="I193" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="2" t="s">
         <v>269</v>
       </c>
@@ -6620,8 +7505,11 @@
       <c r="I194" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="2" t="s">
         <v>270</v>
       </c>
@@ -6643,8 +7531,11 @@
       <c r="I195" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="2" t="s">
         <v>271</v>
       </c>
@@ -6666,8 +7557,11 @@
       <c r="I196" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="2" t="s">
         <v>272</v>
       </c>
@@ -6689,8 +7583,11 @@
       <c r="I197" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="2" t="s">
         <v>273</v>
       </c>
@@ -6712,8 +7609,11 @@
       <c r="I198" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="2" t="s">
         <v>274</v>
       </c>
@@ -6735,8 +7635,11 @@
       <c r="I199" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="2" t="s">
         <v>275</v>
       </c>
@@ -6758,8 +7661,11 @@
       <c r="I200" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="2" t="s">
         <v>276</v>
       </c>
@@ -6781,8 +7687,11 @@
       <c r="I201" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="2" t="s">
         <v>278</v>
       </c>
@@ -6804,8 +7713,11 @@
       <c r="I202" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="2" t="s">
         <v>279</v>
       </c>
@@ -6827,8 +7739,11 @@
       <c r="I203" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="2" t="s">
         <v>280</v>
       </c>
@@ -6850,8 +7765,11 @@
       <c r="I204" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="2" t="s">
         <v>281</v>
       </c>
@@ -6873,8 +7791,11 @@
       <c r="I205" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="2" t="s">
         <v>282</v>
       </c>
@@ -6896,8 +7817,11 @@
       <c r="I206" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="2" t="s">
         <v>284</v>
       </c>
@@ -6919,8 +7843,11 @@
       <c r="I207" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="2" t="s">
         <v>285</v>
       </c>
@@ -6942,8 +7869,11 @@
       <c r="I208" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="2" t="s">
         <v>287</v>
       </c>
@@ -6965,8 +7895,11 @@
       <c r="I209" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="2" t="s">
         <v>288</v>
       </c>
@@ -6988,8 +7921,11 @@
       <c r="I210" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="2" t="s">
         <v>289</v>
       </c>
@@ -7011,8 +7947,11 @@
       <c r="I211" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="2" t="s">
         <v>290</v>
       </c>
@@ -7034,21 +7973,1937 @@
       <c r="I212" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="D213" s="17"/>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="D214" s="17"/>
-    </row>
-    <row r="215" spans="1:9">
-      <c r="D215" s="17"/>
-    </row>
-    <row r="216" spans="1:9">
-      <c r="D216" s="17"/>
+      <c r="J212" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I213" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J213" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I214" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J214" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I215" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J215" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I216" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J216" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D217" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I217" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J217" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D218" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I218" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J218" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D219" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I219" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J219" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D220" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I220" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J220" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D221" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I221" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J221" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D222" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I222" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J222" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D223" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I223" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J223" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D224" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I224" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J224" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D225" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I225" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J225" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I226" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J226" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I227" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J227" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I228" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J228" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D229" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I229" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J229" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D230" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I230" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J230" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D231" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I231" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J231" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D232" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I232" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J232" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I233" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J233" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I234" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J234" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I235" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J235" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I236" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J236" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I237" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J237" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I238" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J238" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I239" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J239" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I240" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J240" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I241" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J241" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I242" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J242" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I243" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J243" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I244" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J244" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I245" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J245" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I246" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J246" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I247" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J247" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I248" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J248" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I249" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J249" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I250" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J250" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I251" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J251" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I252" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J252" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I253" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J253" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I254" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J254" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I255" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J255" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I256" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J256" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I257" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J257" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I258" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J258" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I259" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J259" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I260" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J260" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I261" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J261" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I262" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J262" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I263" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J263" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I264" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J264" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I265" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J265" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I266" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J266" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D267" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I267" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J267" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D268" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I268" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J268" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D269" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I269" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J269" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D270" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I270" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J270" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D271" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I271" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J271" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="A272" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D272" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I272" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J272" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
+      <c r="A273" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D273" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I273" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J273" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
+      <c r="A274" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D274" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I274" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J274" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
+      <c r="A275" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I275" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J275" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
+      <c r="A276" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D276" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I276" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J276" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
+      <c r="A277" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D277" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I277" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J277" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
+      <c r="A278" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D278" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I278" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J278" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
+      <c r="A279" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D279" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I279" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="J279" s="20" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H212"/>
+  <autoFilter ref="A1:H279"/>
   <sortState ref="A2:H3">
     <sortCondition ref="D2:D91"/>
     <sortCondition ref="F2:F91"/>

--- a/cns/(cns.generator)/D01B QO and Homeline.xlsx
+++ b/cns/(cns.generator)/D01B QO and Homeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="402">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1219,6 +1219,12 @@
   </si>
   <si>
     <t>HOMQPA</t>
+  </si>
+  <si>
+    <t>_17701002</t>
+  </si>
+  <si>
+    <t>_17701014</t>
   </si>
 </sst>
 </file>
@@ -1971,10 +1977,10 @@
   <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D275" sqref="D275"/>
+      <selection pane="bottomRight" activeCell="D268" sqref="D268:D269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9916,16 +9922,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F34"/>
+  <dimension ref="A3:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.88671875" customWidth="1"/>
     <col min="4" max="6" width="54.6640625" customWidth="1"/>
   </cols>
@@ -9984,8 +9990,12 @@
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -9994,8 +10004,12 @@
       <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -10004,8 +10018,12 @@
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -10014,8 +10032,12 @@
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>262</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -10024,8 +10046,12 @@
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -10034,8 +10060,12 @@
       <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -10044,8 +10074,12 @@
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>260</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -10054,8 +10088,12 @@
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="D15" s="13"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -10064,137 +10102,129 @@
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>283</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
     <row r="20" spans="1:6">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="14"/>
+      <c r="B21" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="B22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="13"/>
+      <c r="B23" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="13"/>
+      <c r="B24" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="13"/>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="11" t="s">
@@ -10202,12 +10232,12 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="11" t="s">
@@ -10215,7 +10245,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>12</v>
@@ -10227,8 +10257,12 @@
         <v>23</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:6">
@@ -10236,8 +10270,12 @@
         <v>23</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5">
@@ -10245,8 +10283,12 @@
         <v>23</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5">
@@ -10254,12 +10296,104 @@
         <v>23</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E34" s="13"/>
     </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="13"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/cns/(cns.generator)/D01B QO and Homeline.xlsx
+++ b/cns/(cns.generator)/D01B QO and Homeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-12" windowWidth="23124" windowHeight="4272" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="23130" windowHeight="4275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Easy Selector Jump Start" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="418">
   <si>
     <t>Catalog#</t>
   </si>
@@ -1225,6 +1225,54 @@
   </si>
   <si>
     <t>_17701014</t>
+  </si>
+  <si>
+    <t>_17701002A</t>
+  </si>
+  <si>
+    <t>_17701002B</t>
+  </si>
+  <si>
+    <t>_17701002C</t>
+  </si>
+  <si>
+    <t>_17701002D</t>
+  </si>
+  <si>
+    <t>_17701002E</t>
+  </si>
+  <si>
+    <t>_17701002F</t>
+  </si>
+  <si>
+    <t>_17701002G</t>
+  </si>
+  <si>
+    <t>_17701002H</t>
+  </si>
+  <si>
+    <t>_17701002I</t>
+  </si>
+  <si>
+    <t>_17701014A</t>
+  </si>
+  <si>
+    <t>_17701014B</t>
+  </si>
+  <si>
+    <t>_17701014C</t>
+  </si>
+  <si>
+    <t>_17701014D</t>
+  </si>
+  <si>
+    <t>_17701014E</t>
+  </si>
+  <si>
+    <t>_17701014F</t>
+  </si>
+  <si>
+    <t>_17701014G</t>
   </si>
 </sst>
 </file>
@@ -1977,20 +2025,20 @@
   <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D268" sqref="D268:D269"/>
+      <selection pane="bottomRight" activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9925,15 +9973,15 @@
   <dimension ref="A3:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" customWidth="1"/>
-    <col min="4" max="6" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="6" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -10005,7 +10053,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>175</v>
@@ -10019,7 +10067,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>190</v>
@@ -10033,7 +10081,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>262</v>
@@ -10047,7 +10095,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>227</v>
@@ -10061,7 +10109,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>245</v>
@@ -10075,7 +10123,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>260</v>
@@ -10089,7 +10137,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>277</v>
@@ -10103,7 +10151,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>283</v>
@@ -10113,8 +10161,11 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B17" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>286</v>
@@ -10124,6 +10175,9 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
+      <c r="A18" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>401</v>
       </c>
@@ -10135,8 +10189,11 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6">
+      <c r="A19" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>323</v>
@@ -10146,8 +10203,11 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B20" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>326</v>
@@ -10157,8 +10217,11 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6">
+      <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>340</v>
@@ -10168,8 +10231,11 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B22" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>348</v>
@@ -10179,8 +10245,11 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B23" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>349</v>
@@ -10190,8 +10259,11 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
+      <c r="A24" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>358</v>
@@ -10205,7 +10277,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>369</v>
@@ -10407,13 +10479,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1">
+    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:2" ht="15.75" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
